--- a/export/export/AMZN_1mo_stock_data.xlsx
+++ b/export/export/AMZN_1mo_stock_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,19 +502,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>186.8500061035156</v>
+        <v>194.3099975585938</v>
       </c>
       <c r="B2" t="n">
-        <v>189.4499969482422</v>
+        <v>194.5299987792969</v>
       </c>
       <c r="C2" t="n">
-        <v>186.1399993896484</v>
+        <v>189.5399932861328</v>
       </c>
       <c r="D2" t="n">
-        <v>186.8800048828125</v>
+        <v>191.1600036621094</v>
       </c>
       <c r="E2" t="n">
-        <v>26091700</v>
+        <v>36334900</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -525,10 +525,10 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>186.8800048828125</v>
+        <v>191.1600036621094</v>
       </c>
       <c r="K2" t="n">
-        <v>186.8800048828125</v>
+        <v>191.1600036621094</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -539,19 +539,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>186.4499969482422</v>
+        <v>190.6799926757812</v>
       </c>
       <c r="B3" t="n">
-        <v>188.8000030517578</v>
+        <v>190.8999938964844</v>
       </c>
       <c r="C3" t="n">
-        <v>185.0599975585938</v>
+        <v>187.3399963378906</v>
       </c>
       <c r="D3" t="n">
-        <v>186.4299926757812</v>
+        <v>187.9700012207031</v>
       </c>
       <c r="E3" t="n">
-        <v>34448100</v>
+        <v>36002300</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -562,33 +562,33 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>186.8107722355769</v>
+        <v>190.6692340557392</v>
       </c>
       <c r="K3" t="n">
-        <v>186.8466706452546</v>
+        <v>190.9237071849682</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03589840967774194</v>
+        <v>-0.2544731292289839</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.007179681935548388</v>
+        <v>-0.05089462584579679</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>190.0399932861328</v>
+        <v>187.1399993896484</v>
       </c>
       <c r="B4" t="n">
-        <v>190.9900054931641</v>
+        <v>188.4900054931641</v>
       </c>
       <c r="C4" t="n">
-        <v>188.4700012207031</v>
+        <v>184.6499938964844</v>
       </c>
       <c r="D4" t="n">
-        <v>189.8699951171875</v>
+        <v>186.3300018310547</v>
       </c>
       <c r="E4" t="n">
-        <v>39543200</v>
+        <v>41583900</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -599,33 +599,33 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>187.2814219096709</v>
+        <v>190.0016598673262</v>
       </c>
       <c r="K4" t="n">
-        <v>187.0706206061386</v>
+        <v>190.5834327143079</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2108013035322926</v>
+        <v>-0.5817728469817496</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03641651515801982</v>
+        <v>-0.1570702700729874</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>190.2299957275391</v>
+        <v>184.8999938964844</v>
       </c>
       <c r="B5" t="n">
-        <v>191.8399963378906</v>
+        <v>186.1900024414062</v>
       </c>
       <c r="C5" t="n">
-        <v>187.4100036621094</v>
+        <v>183.4499969482422</v>
       </c>
       <c r="D5" t="n">
-        <v>191.6000061035156</v>
+        <v>185.1300048828125</v>
       </c>
       <c r="E5" t="n">
-        <v>100378600</v>
+        <v>36044900</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -636,33 +636,33 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>187.9458194779547</v>
+        <v>189.2521744850933</v>
       </c>
       <c r="K5" t="n">
-        <v>187.4061306429813</v>
+        <v>190.1794750971601</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5396888349733615</v>
+        <v>-0.9273006120668299</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1370709791210882</v>
+        <v>-0.3111163384717559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>191.6399993896484</v>
+        <v>184.4400024414062</v>
       </c>
       <c r="B6" t="n">
-        <v>194.4499969482422</v>
+        <v>186.6000061035156</v>
       </c>
       <c r="C6" t="n">
-        <v>190.5700073242188</v>
+        <v>184.0399932861328</v>
       </c>
       <c r="D6" t="n">
-        <v>193.8800048828125</v>
+        <v>184.7599945068359</v>
       </c>
       <c r="E6" t="n">
-        <v>36993100</v>
+        <v>23704100</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -671,37 +671,37 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>189.7320007324219</v>
+        <v>187.0700012207031</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>188.858771078702</v>
+        <v>188.5610698730537</v>
       </c>
       <c r="K6" t="n">
-        <v>187.8856768829688</v>
+        <v>189.7780320904695</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9730941957332107</v>
+        <v>-1.216962217415755</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3042756224435127</v>
+        <v>-0.4922855142605558</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>194.2700042724609</v>
+        <v>183.0500030517578</v>
       </c>
       <c r="B7" t="n">
-        <v>195.3699951171875</v>
+        <v>183.4400024414062</v>
       </c>
       <c r="C7" t="n">
-        <v>190.1300048828125</v>
+        <v>180.8800048828125</v>
       </c>
       <c r="D7" t="n">
-        <v>193.9600067138672</v>
+        <v>181.9600067138672</v>
       </c>
       <c r="E7" t="n">
-        <v>43478900</v>
+        <v>30204300</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -710,37 +710,37 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>191.1480010986328</v>
+        <v>185.2300018310547</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>189.6435765610351</v>
+        <v>187.5455216947173</v>
       </c>
       <c r="K7" t="n">
-        <v>188.3356272408132</v>
+        <v>189.19891909961</v>
       </c>
       <c r="L7" t="n">
-        <v>1.307949320221979</v>
+        <v>-1.653397404892701</v>
       </c>
       <c r="M7" t="n">
-        <v>0.505010361999206</v>
+        <v>-0.7245078923869848</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>193.75</v>
+        <v>185.75</v>
       </c>
       <c r="B8" t="n">
-        <v>193.9499969482422</v>
+        <v>187.6000061035156</v>
       </c>
       <c r="C8" t="n">
-        <v>192.1600036621094</v>
+        <v>183.6000061035156</v>
       </c>
       <c r="D8" t="n">
-        <v>192.5299987792969</v>
+        <v>186.5099945068359</v>
       </c>
       <c r="E8" t="n">
-        <v>26391100</v>
+        <v>40890300</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>192.3680023193359</v>
+        <v>184.9380004882813</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>190.0876415176908</v>
+        <v>187.3862098196586</v>
       </c>
       <c r="K8" t="n">
-        <v>188.646321428849</v>
+        <v>188.9997395001453</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44132008884182</v>
+        <v>-1.613529680486636</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6922723073677289</v>
+        <v>-0.902312250006915</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>194.3099975585938</v>
+        <v>182.9499969482422</v>
       </c>
       <c r="B9" t="n">
-        <v>194.5299987792969</v>
+        <v>183.6000061035156</v>
       </c>
       <c r="C9" t="n">
-        <v>189.5399932861328</v>
+        <v>180.25</v>
       </c>
       <c r="D9" t="n">
-        <v>191.1600036621094</v>
+        <v>180.8000030517578</v>
       </c>
       <c r="E9" t="n">
-        <v>36334900</v>
+        <v>42364200</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -788,37 +788,37 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>192.6260040283203</v>
+        <v>183.8320007324219</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>190.2526203091398</v>
+        <v>186.3729472399816</v>
       </c>
       <c r="K9" t="n">
-        <v>188.8325201127942</v>
+        <v>188.3923516150795</v>
       </c>
       <c r="L9" t="n">
-        <v>1.420100196345601</v>
+        <v>-2.019404375097963</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8378378851633033</v>
+        <v>-1.125730675025125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>190.6799926757812</v>
+        <v>181.9199981689453</v>
       </c>
       <c r="B10" t="n">
-        <v>190.8999938964844</v>
+        <v>183.0899963378906</v>
       </c>
       <c r="C10" t="n">
-        <v>187.3399963378906</v>
+        <v>180.9199981689453</v>
       </c>
       <c r="D10" t="n">
-        <v>187.9700012207031</v>
+        <v>182.7200012207031</v>
       </c>
       <c r="E10" t="n">
-        <v>36002300</v>
+        <v>26372100</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -827,37 +827,37 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>191.9000030517578</v>
+        <v>183.35</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>189.901448141688</v>
+        <v>185.810955544708</v>
       </c>
       <c r="K10" t="n">
-        <v>188.7686298244911</v>
+        <v>187.9721775117924</v>
       </c>
       <c r="L10" t="n">
-        <v>1.132818317196865</v>
+        <v>-2.161221967084401</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8968339715700157</v>
+        <v>-1.33282893343698</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>187.1399993896484</v>
+        <v>182.8200073242188</v>
       </c>
       <c r="B11" t="n">
-        <v>188.4900054931641</v>
+        <v>185.8500061035156</v>
       </c>
       <c r="C11" t="n">
-        <v>184.6499938964844</v>
+        <v>182.0500030517578</v>
       </c>
       <c r="D11" t="n">
-        <v>186.3300018310547</v>
+        <v>185.1699981689453</v>
       </c>
       <c r="E11" t="n">
-        <v>41583900</v>
+        <v>26343100</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -866,37 +866,37 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>190.3900024414062</v>
+        <v>183.4320007324219</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>189.3519948631291</v>
+        <v>185.7123467176675</v>
       </c>
       <c r="K11" t="n">
-        <v>188.5879907138662</v>
+        <v>187.7646086715814</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7640041492628313</v>
+        <v>-2.052261953913899</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8702680071085789</v>
+        <v>-1.476715537532364</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>184.8999938964844</v>
+        <v>187.1300048828125</v>
       </c>
       <c r="B12" t="n">
-        <v>186.1900024414062</v>
+        <v>188.1300048828125</v>
       </c>
       <c r="C12" t="n">
-        <v>183.4499969482422</v>
+        <v>185.8300018310547</v>
       </c>
       <c r="D12" t="n">
-        <v>185.1300048828125</v>
+        <v>186.6499938964844</v>
       </c>
       <c r="E12" t="n">
-        <v>36044900</v>
+        <v>27785000</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -905,37 +905,37 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>188.6240020751953</v>
+        <v>184.3699981689453</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>188.7024579430804</v>
+        <v>185.8566001297932</v>
       </c>
       <c r="K12" t="n">
-        <v>188.3318436152697</v>
+        <v>187.6820446141669</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3706143278106993</v>
+        <v>-1.825444484373662</v>
       </c>
       <c r="M12" t="n">
-        <v>0.770337271249003</v>
+        <v>-1.546461326900623</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>184.4400024414062</v>
+        <v>186.6300048828125</v>
       </c>
       <c r="B13" t="n">
-        <v>186.6000061035156</v>
+        <v>189.9299926757812</v>
       </c>
       <c r="C13" t="n">
-        <v>184.0399932861328</v>
+        <v>186.3000030517578</v>
       </c>
       <c r="D13" t="n">
-        <v>184.7599945068359</v>
+        <v>188.8200073242188</v>
       </c>
       <c r="E13" t="n">
-        <v>23704100</v>
+        <v>25751600</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -944,37 +944,37 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>187.0700012207031</v>
+        <v>184.8320007324219</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>188.0959251067351</v>
+        <v>186.3125089289356</v>
       </c>
       <c r="K13" t="n">
-        <v>188.0672621998301</v>
+        <v>187.7663381482448</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02866290690491269</v>
+        <v>-1.453829219309171</v>
       </c>
       <c r="M13" t="n">
-        <v>0.622002398380185</v>
+        <v>-1.527934905382333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>183.0500030517578</v>
+        <v>189.7799987792969</v>
       </c>
       <c r="B14" t="n">
-        <v>183.4400024414062</v>
+        <v>189.8300018310547</v>
       </c>
       <c r="C14" t="n">
-        <v>180.8800048828125</v>
+        <v>187.3600006103516</v>
       </c>
       <c r="D14" t="n">
-        <v>181.9600067138672</v>
+        <v>187.5399932861328</v>
       </c>
       <c r="E14" t="n">
-        <v>30204300</v>
+        <v>22614400</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>185.2300018310547</v>
+        <v>186.1799987792969</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>187.1519376616785</v>
+        <v>186.5013526761967</v>
       </c>
       <c r="K14" t="n">
-        <v>187.6148729045736</v>
+        <v>187.7495718621624</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.4629352428951563</v>
+        <v>-1.248219185965723</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4050148701251168</v>
+        <v>-1.471991761499011</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>185.75</v>
+        <v>187.6300048828125</v>
       </c>
       <c r="B15" t="n">
-        <v>187.6000061035156</v>
+        <v>188.4100036621094</v>
       </c>
       <c r="C15" t="n">
-        <v>183.6000061035156</v>
+        <v>184.5800018310547</v>
       </c>
       <c r="D15" t="n">
-        <v>186.5099945068359</v>
+        <v>187.6900024414062</v>
       </c>
       <c r="E15" t="n">
-        <v>40890300</v>
+        <v>32178900</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1022,37 +1022,37 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>184.9380004882813</v>
+        <v>187.1739990234375</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>187.0531771763181</v>
+        <v>186.6842218708443</v>
       </c>
       <c r="K15" t="n">
-        <v>187.5330300602967</v>
+        <v>187.7451593124768</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.4798528839786798</v>
+        <v>-1.060937441632461</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2280413193043575</v>
+        <v>-1.389780897525701</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>182.9499969482422</v>
+        <v>187.0500030517578</v>
       </c>
       <c r="B16" t="n">
-        <v>183.6000061035156</v>
+        <v>187.7799987792969</v>
       </c>
       <c r="C16" t="n">
-        <v>180.25</v>
+        <v>185.6100006103516</v>
       </c>
       <c r="D16" t="n">
-        <v>180.8000030517578</v>
+        <v>186.8899993896484</v>
       </c>
       <c r="E16" t="n">
-        <v>42364200</v>
+        <v>23456800</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1061,39 +1061,39 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>183.8320007324219</v>
+        <v>187.5179992675781</v>
       </c>
       <c r="I16" t="n">
-        <v>39.94708874568639</v>
+        <v>42.81386181836858</v>
       </c>
       <c r="J16" t="n">
-        <v>186.0911503879242</v>
+        <v>186.7158799506603</v>
       </c>
       <c r="K16" t="n">
-        <v>187.0342873189235</v>
+        <v>187.681814133008</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.9431369309992874</v>
+        <v>-0.965934182347695</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.006194330756371491</v>
+        <v>-1.3050115544901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>181.9199981689453</v>
+        <v>188.2200012207031</v>
       </c>
       <c r="B17" t="n">
-        <v>183.0899963378906</v>
+        <v>188.9400024414062</v>
       </c>
       <c r="C17" t="n">
-        <v>180.9199981689453</v>
+        <v>186</v>
       </c>
       <c r="D17" t="n">
-        <v>182.7200012207031</v>
+        <v>187.5299987792969</v>
       </c>
       <c r="E17" t="n">
-        <v>26372100</v>
+        <v>25039400</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1102,39 +1102,39 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>183.35</v>
+        <v>187.6940002441406</v>
       </c>
       <c r="I17" t="n">
-        <v>44.15012227244862</v>
+        <v>49.18998088718947</v>
       </c>
       <c r="J17" t="n">
-        <v>185.5725120545056</v>
+        <v>186.8411290012198</v>
       </c>
       <c r="K17" t="n">
-        <v>186.7147105709071</v>
+        <v>187.6705685512517</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.142198516401578</v>
+        <v>-0.8294395500318785</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.2333951678854128</v>
+        <v>-1.209897153598456</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>182.8200073242188</v>
+        <v>187.1499938964844</v>
       </c>
       <c r="B18" t="n">
-        <v>185.8500061035156</v>
+        <v>190.7400054931641</v>
       </c>
       <c r="C18" t="n">
-        <v>182.0500030517578</v>
+        <v>186.2799987792969</v>
       </c>
       <c r="D18" t="n">
-        <v>185.1699981689453</v>
+        <v>188.9900054931641</v>
       </c>
       <c r="E18" t="n">
-        <v>26343100</v>
+        <v>37417700</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1143,39 +1143,39 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>183.4320007324219</v>
+        <v>187.7279998779297</v>
       </c>
       <c r="I18" t="n">
-        <v>42.35026188802765</v>
+        <v>54.92958224416089</v>
       </c>
       <c r="J18" t="n">
-        <v>185.5105868413424</v>
+        <v>187.1717253845958</v>
       </c>
       <c r="K18" t="n">
-        <v>186.6002874300211</v>
+        <v>187.768304621023</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.089700588678653</v>
+        <v>-0.5965792364271181</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.4046562520440609</v>
+        <v>-1.087233570164188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>187.1300048828125</v>
+        <v>188.0500030517578</v>
       </c>
       <c r="B19" t="n">
-        <v>188.1300048828125</v>
+        <v>189.4600067138672</v>
       </c>
       <c r="C19" t="n">
-        <v>185.8300018310547</v>
+        <v>186.3999938964844</v>
       </c>
       <c r="D19" t="n">
-        <v>186.6499938964844</v>
+        <v>189.0700073242188</v>
       </c>
       <c r="E19" t="n">
-        <v>27785000</v>
+        <v>24639400</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1184,39 +1184,39 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>184.3699981689453</v>
+        <v>188.0340026855469</v>
       </c>
       <c r="I19" t="n">
-        <v>41.87722847642323</v>
+        <v>57.61794281438928</v>
       </c>
       <c r="J19" t="n">
-        <v>185.6858802344412</v>
+        <v>187.4637687599225</v>
       </c>
       <c r="K19" t="n">
-        <v>186.6039693904999</v>
+        <v>187.8647270434819</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.9180891560586986</v>
+        <v>-0.4009582835594756</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.5073428328469884</v>
+        <v>-0.9499785128432457</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>186.6300048828125</v>
+        <v>188.3500061035156</v>
       </c>
       <c r="B20" t="n">
-        <v>189.9299926757812</v>
+        <v>191.5200042724609</v>
       </c>
       <c r="C20" t="n">
-        <v>186.3000030517578</v>
+        <v>186.9799957275391</v>
       </c>
       <c r="D20" t="n">
-        <v>188.8200073242188</v>
+        <v>189.6999969482422</v>
       </c>
       <c r="E20" t="n">
-        <v>25751600</v>
+        <v>29650600</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1225,39 +1225,39 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>184.8320007324219</v>
+        <v>188.4360015869141</v>
       </c>
       <c r="I20" t="n">
-        <v>41.66666666666667</v>
+        <v>59.45636172450052</v>
       </c>
       <c r="J20" t="n">
-        <v>186.1680536328685</v>
+        <v>187.8078038658178</v>
       </c>
       <c r="K20" t="n">
-        <v>186.7681203485531</v>
+        <v>188.0006729623531</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.6000667156846191</v>
+        <v>-0.1928690965352473</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.5258876094145146</v>
+        <v>-0.7985566295816462</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>189.7799987792969</v>
+        <v>188.8500061035156</v>
       </c>
       <c r="B21" t="n">
-        <v>189.8300018310547</v>
+        <v>189.1600036621094</v>
       </c>
       <c r="C21" t="n">
-        <v>187.3600006103516</v>
+        <v>183.6900024414062</v>
       </c>
       <c r="D21" t="n">
-        <v>187.5399932861328</v>
+        <v>184.7100067138672</v>
       </c>
       <c r="E21" t="n">
-        <v>22614400</v>
+        <v>31937100</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1266,39 +1266,39 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>186.1799987792969</v>
+        <v>188.0000030517578</v>
       </c>
       <c r="I21" t="n">
-        <v>39.82887527824568</v>
+        <v>54.85694142909809</v>
       </c>
       <c r="J21" t="n">
-        <v>186.3791212718322</v>
+        <v>187.3312196885946</v>
       </c>
       <c r="K21" t="n">
-        <v>186.8252961217071</v>
+        <v>187.7569199069096</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.4461748498748932</v>
+        <v>-0.4257002183150007</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.5099450575065904</v>
+        <v>-0.7239853473283171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>187.6300048828125</v>
+        <v>185.25</v>
       </c>
       <c r="B22" t="n">
-        <v>188.4100036621094</v>
+        <v>187.1100006103516</v>
       </c>
       <c r="C22" t="n">
-        <v>184.5800018310547</v>
+        <v>183.8600006103516</v>
       </c>
       <c r="D22" t="n">
-        <v>187.6900024414062</v>
+        <v>186.3800048828125</v>
       </c>
       <c r="E22" t="n">
-        <v>32178900</v>
+        <v>21647400</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1307,39 +1307,39 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>187.1739990234375</v>
+        <v>187.7700042724609</v>
       </c>
       <c r="I22" t="n">
-        <v>42.00793174866334</v>
+        <v>49.74441686302676</v>
       </c>
       <c r="J22" t="n">
-        <v>186.5807952979205</v>
+        <v>187.1848789492436</v>
       </c>
       <c r="K22" t="n">
-        <v>186.8893484416849</v>
+        <v>187.6549262014209</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.3085531437643283</v>
+        <v>-0.4700472521773804</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.4696666747581379</v>
+        <v>-0.6731977282981298</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>187.0500030517578</v>
+        <v>187.8500061035156</v>
       </c>
       <c r="B23" t="n">
-        <v>187.7799987792969</v>
+        <v>190.4499969482422</v>
       </c>
       <c r="C23" t="n">
-        <v>185.6100006103516</v>
+        <v>187.5299987792969</v>
       </c>
       <c r="D23" t="n">
-        <v>186.8899993896484</v>
+        <v>187.8300018310547</v>
       </c>
       <c r="E23" t="n">
-        <v>23427800</v>
+        <v>26968889</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1348,63 +1348,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>187.5179992675781</v>
+        <v>187.5380035400391</v>
       </c>
       <c r="I23" t="n">
-        <v>42.81386181836858</v>
+        <v>66.60367104464618</v>
       </c>
       <c r="J23" t="n">
-        <v>186.6283651581863</v>
+        <v>187.2841286233684</v>
       </c>
       <c r="K23" t="n">
-        <v>186.8893966600525</v>
+        <v>187.667894766579</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.2610315018661993</v>
+        <v>-0.3837661432106358</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.4279396401797502</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>188.1399993896484</v>
-      </c>
-      <c r="B24" t="n">
-        <v>188.9400024414062</v>
-      </c>
-      <c r="C24" t="n">
-        <v>186</v>
-      </c>
-      <c r="D24" t="n">
-        <v>187.7799987792969</v>
-      </c>
-      <c r="E24" t="n">
-        <v>15132703</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>187.7440002441406</v>
-      </c>
-      <c r="I24" t="n">
-        <v>49.65340675661984</v>
-      </c>
-      <c r="J24" t="n">
-        <v>186.8055395614341</v>
-      </c>
-      <c r="K24" t="n">
-        <v>186.955367187404</v>
-      </c>
-      <c r="L24" t="n">
-        <v>-0.1498276259698343</v>
-      </c>
-      <c r="M24" t="n">
-        <v>-0.3723172373377671</v>
+        <v>-0.615311411280631</v>
       </c>
     </row>
   </sheetData>
